--- a/sazman omur daneshjuyan/Sao.BPM.PSC01-QC02.0.3.xlsx
+++ b/sazman omur daneshjuyan/Sao.BPM.PSC01-QC02.0.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nassvr\Temp\Alipour\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiralipour\Documents\control-quality\سند سناریو فرآیند ارزشیابی مدرک تحصیلی خارجی\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD7DE03E-BB51-4C99-BC41-5AC8C4AA310F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C555AA-1889-4BD1-8349-DA0331948605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="چکلیست عمومی" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -633,6 +642,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,41 +678,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1334,29 +1343,29 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="17">
+      <c r="A4" s="25">
         <v>77874115</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1365,29 +1374,29 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5" t="s">
         <v>98</v>
       </c>
@@ -1396,20 +1405,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
       <c r="D10" s="5" t="s">
         <v>98</v>
       </c>
@@ -1418,510 +1427,510 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
       <c r="D12" s="5"/>
       <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
       <c r="D14" s="5"/>
       <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="5"/>
       <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
       <c r="D18" s="5"/>
       <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="5"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="5"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" s="5"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" s="5"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" s="5"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
       <c r="D27" s="5"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
       <c r="D29" s="5"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
       <c r="D30" s="5"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
       <c r="D31" s="5"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
       <c r="D32" s="5"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="5"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
       <c r="D34" s="5"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
       <c r="D35" s="5"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
       <c r="D36" s="5"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
       <c r="D37" s="5"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="5"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
       <c r="D39" s="5"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="5"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="5"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="5"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
       <c r="D43" s="5"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="5"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="5"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
       <c r="D47" s="5"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="5"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
       <c r="D49" s="5"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
       <c r="D52" s="5"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
       <c r="D54" s="5"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="5"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
       <c r="D59" s="5"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="36" x14ac:dyDescent="0.45">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="29" t="s">
+      <c r="E62" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="5"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="5"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="5"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="18" t="s">
+      <c r="A66" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
       <c r="D66" s="5"/>
       <c r="E66" s="3"/>
     </row>
@@ -1932,54 +1941,6 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="64">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A66:C66"/>
@@ -1996,6 +1957,54 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C2">
     <cfRule type="duplicateValues" dxfId="31" priority="1"/>
@@ -2067,30 +2076,30 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="17">
+      <c r="A4" s="25">
         <f>'چکلیست عمومی'!A4:E4</f>
         <v>77874115</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2099,146 +2108,146 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
       <c r="D21" s="5" t="s">
         <v>98</v>
       </c>
@@ -2247,11 +2256,11 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="36" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
       <c r="D22" s="5" t="s">
         <v>98</v>
       </c>
@@ -2260,63 +2269,49 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="18"/>
       <c r="D23" s="5"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="5"/>
       <c r="E24" s="6"/>
     </row>
     <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="18"/>
       <c r="D25" s="5"/>
       <c r="E25" s="6"/>
     </row>
     <row r="26" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="18"/>
       <c r="D26" s="5"/>
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
       <c r="D27" s="5"/>
       <c r="E27" s="6"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
       <c r="D28" s="5"/>
       <c r="E28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
@@ -2329,6 +2324,20 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
     <cfRule type="duplicateValues" dxfId="28" priority="25"/>
@@ -2388,7 +2397,7 @@
   <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2440,30 +2449,30 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="17">
+      <c r="A4" s="25">
         <f>'چکلیست عمومی'!A4:E4</f>
         <v>77874115</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2472,11 +2481,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="11" t="s">
         <v>98</v>
       </c>
@@ -2501,8 +2510,8 @@
       <c r="A8" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="11" t="s">
         <v>98</v>
       </c>
@@ -2514,8 +2523,8 @@
       <c r="A9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="11" t="s">
         <v>98</v>
       </c>
@@ -2527,8 +2536,8 @@
       <c r="A10" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="11" t="s">
         <v>98</v>
       </c>
@@ -2537,11 +2546,11 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="11" t="s">
         <v>98</v>
       </c>
@@ -2550,11 +2559,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="D12" s="11" t="s">
         <v>98</v>
       </c>
@@ -2566,8 +2575,8 @@
       <c r="A13" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
       <c r="D13" s="11" t="s">
         <v>98</v>
       </c>
@@ -2576,11 +2585,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
       <c r="D14" s="11" t="s">
         <v>98</v>
       </c>
@@ -2592,8 +2601,8 @@
       <c r="A15" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
       <c r="D15" s="11" t="s">
         <v>98</v>
       </c>
@@ -2605,8 +2614,8 @@
       <c r="A16" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
       <c r="D16" s="11" t="s">
         <v>98</v>
       </c>
@@ -2629,554 +2638,618 @@
     </row>
     <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A18" s="27"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="11"/>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
       <c r="A19" s="27"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
       <c r="D19" s="11"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="11"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
       <c r="D21" s="11"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
       <c r="D22" s="11"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="11"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="11"/>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="11"/>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="11"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="11"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="11"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="11"/>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="11"/>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="11"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="11"/>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="11"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="11"/>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="11"/>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="11"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="11"/>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="11"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="11"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="11"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="11"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="11"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="11"/>
       <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="11"/>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="11"/>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="11"/>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="11"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="11"/>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="11"/>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="11"/>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="11"/>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="11"/>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="11"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="11"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="11"/>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="11"/>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="11"/>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="11"/>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="11"/>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A60" s="28"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="11"/>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="11"/>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="11"/>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="11"/>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="11"/>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="11"/>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A66" s="28"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="11"/>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="11"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="11"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A69" s="28"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="11"/>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A70" s="28"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="11"/>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="11"/>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="11"/>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A73" s="28"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="11"/>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A74" s="28"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="11"/>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A75" s="28"/>
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
+      <c r="A75" s="26"/>
+      <c r="B75" s="26"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="11"/>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="11"/>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="11"/>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="11"/>
       <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="11"/>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="11"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
+      <c r="A81" s="26"/>
+      <c r="B81" s="26"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="11"/>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A82" s="28"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="11"/>
       <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A83" s="28"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="11"/>
       <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A84" s="28"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="11"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A85" s="28"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
+      <c r="A85" s="26"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="11"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="26"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="11"/>
       <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="26"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="11"/>
       <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="26"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="11"/>
       <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A89" s="28"/>
-      <c r="B89" s="28"/>
-      <c r="C89" s="28"/>
+      <c r="A89" s="26"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="11"/>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A90" s="28"/>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="11"/>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A91" s="28"/>
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="26"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="11"/>
       <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A92" s="28"/>
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="26"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="11"/>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A93" s="28"/>
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="26"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="11"/>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A94" s="28"/>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="26"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="11"/>
       <c r="E94" s="3"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="92">
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A76:C76"/>
@@ -3189,78 +3262,14 @@
     <mergeCell ref="A83:C83"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A92:C92"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="5" priority="7"/>
@@ -3288,7 +3297,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/sazman omur daneshjuyan/Sao.BPM.PSC01-QC02.0.3.xlsx
+++ b/sazman omur daneshjuyan/Sao.BPM.PSC01-QC02.0.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiralipour\Documents\control-quality\sazman omur daneshjuyan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A667194F-80EB-4132-827D-59F853AF3D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111154F9-47BB-4816-84DB-DA3116390BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="162">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -395,9 +395,6 @@
     <t>آقای بحرینی</t>
   </si>
   <si>
-    <t>اضافه بودن لیبل ها در قسمت های بارگذاری فایل مثلا در بخش اطلاعات درخواست، در بارگذاری نظام وظیفه، ترکیب دکمه بارگذاری با لیبل باعث به هم ریختگی بعد از آپلود و حذف فایل لیبل می شود .</t>
-  </si>
-  <si>
     <t>y</t>
   </si>
   <si>
@@ -419,24 +416,12 @@
 برای مقاطع تحصیلی فاقد کد صحت، ضروری است کد صحت دریافت شود. دریافت کد صحت به ترتیب از پایین ترین مقطع دانشگاهی فاقد کد صحت باید انجام شود.</t>
   </si>
   <si>
-    <t>با انتخاب برخی از مقاطع مانند "کارشناسی سه ساله"، مدرک بازیابی نمی گردد.</t>
-  </si>
-  <si>
-    <t>بخش «سوابق تحصیلی»را کلا نداریم.</t>
-  </si>
-  <si>
-    <t>قانون 5 پرتال</t>
-  </si>
-  <si>
     <t>قانون 6 پرتال</t>
   </si>
   <si>
     <t>فیلد «تاریخ فراغت از تحصیل» از فیلد « تاریخ شروع به تحصیل» کوچکتر قبول کرد.</t>
   </si>
   <si>
-    <t xml:space="preserve">کد پیگیری irandoc غیر عددی نیز می گرفت. </t>
-  </si>
-  <si>
     <t>پس از مقدار دهی به فیلد «کد رهگیری تاییدیه تحصیلی آموزش و پرورش» ، سرویس آموزش و پرورش فراخوانی نمی شود و هیچ پیغامی نیز دریافت نکردم.</t>
   </si>
   <si>
@@ -458,15 +443,9 @@
     <t>قانون 3 پرتال</t>
   </si>
   <si>
-    <t>اشکال سند</t>
-  </si>
-  <si>
     <t>فیلد «تاریخ ورود به ایران از کشور محل تحصیل»  مقدار مساوی با «تاریخ خروج از ایران به مقصد کشور محل تحصیل» را نیز قبول می کند.(باید فقط بزرگتر قبول کند.)</t>
   </si>
   <si>
-    <t>در فیلد "دیپلم خود را داخل کشور دریافت کرده اید؟" پس از تغییر مقدار، فیلدهای مرتبط آن clear نمی شود.</t>
-  </si>
-  <si>
     <t>در پورتال، در فرم ارزشیابی مدرک تحصیلی</t>
   </si>
   <si>
@@ -506,15 +485,6 @@
     <t xml:space="preserve"> در گزارش سوابق تردد، پنجره گزارش با اندازه نامناسب باز می شود.</t>
   </si>
   <si>
-    <t>در سربرگ اطلاعات میخک، در صورت انتخاب گزینه "قابل ارزشیابی میباشد" در بخش "بررسی اولیه کارشناس ارزشیابی" ، انتخاب این چک باکس توسط کارشناس حوزه جهت ثبت فرایند اجباری نمی شود.</t>
-  </si>
-  <si>
-    <t>قانون 6 tbs</t>
-  </si>
-  <si>
-    <t>در سربرگ اطلاعات iranDoc، در صورت انتخاب گزینه "قابل ارزشیابی میباشد" در بخش "بررسی اولیه کارشناس ارزشیابی" ، انتخاب این چک باکس توسط کارشناس حوزه جهت ثبت فرایند اجباری نمی شود.</t>
-  </si>
-  <si>
     <t xml:space="preserve">در بخش بررسی اولیه کارشناس ارزشیابی، با انتخاب گزینه قابل ارزشیابی میباشد، توضیحات غیر فعال نمی شود. </t>
   </si>
   <si>
@@ -524,10 +494,6 @@
     <t xml:space="preserve">در بخش بررسی اولیه کارشناس ارزشیابی، با انتخاب گزینه "مدارک ناقص است" میباشد، توضیحات غیر فعال نمی شود. </t>
   </si>
   <si>
-    <t>در بررسی اولیه کارشناس ارزیابی، با انتخاب "قابل ارزشیابی" نمی باشد، نام کارشناس غیر فعال هست.
-(باید فعال و اجباری شود.)</t>
-  </si>
-  <si>
     <t>درسربرگ کمیسیون، در فرم تعیین داور</t>
   </si>
   <si>
@@ -541,13 +507,107 @@
   </si>
   <si>
     <t>tbs،فرم فرایند ارزشیابی مدرک خارجی</t>
+  </si>
+  <si>
+    <t>قانون 11 tbs</t>
+  </si>
+  <si>
+    <t>در صورت انتخاب گزینه قابل ارزشیابی نمیباشد ، فیلد توضیحات اجباری نبود و سایر فیلد های این بخش غیر فعال نبودند</t>
+  </si>
+  <si>
+    <t>قانون 12 tbs</t>
+  </si>
+  <si>
+    <t>در بخش بررسی نهایی کارشناس ارزشیابی با انتخاب گزینه قابل ارزشیابی ، توضیحات غیر فعال است.(باید فعال و اختیاری باشد.)</t>
+  </si>
+  <si>
+    <t>در صورت انتخاب گزینه قابل ارزشیابی نمیباشد ، فیلد "توضیحات" اجباری نمی شود.</t>
+  </si>
+  <si>
+    <t>قانون 10 پرتال</t>
+  </si>
+  <si>
+    <t>در بخش نیاز به ارجاع مجدد به کمیسیون ، توضیحات اصلا فعال نمی شود که بتواند اجباری شود.</t>
+  </si>
+  <si>
+    <t>در بخش اعلام نظر متقاضی ، حداکثر کاراکترهای توضیحات بسیار کمتر از 500 عدد هست.</t>
+  </si>
+  <si>
+    <t>در بخش مدارک ناقص است ، توضیحات اصلا فعال نمی شود و همچنین اجباری هم نبود و فرایند ثبت انجام شد.</t>
+  </si>
+  <si>
+    <t>در بخش بررسی رییس اداره، فیلد «توضیحات»  50 تا کاراکتر به جای 500 کاراکتر می پذیرد.</t>
+  </si>
+  <si>
+    <t>قانون 13 tbs</t>
+  </si>
+  <si>
+    <t>در بخش بررسی نهایی کارشناس ارزشیابی، با انتخاب گزینه مدارک ناقص است، فرایند به پایان رسید.
+علت: گزینه قابل ارزشیابی می باشد، clear نمی شود و به این علت فرایند برخلاف انتظار به پایان می رسد و کد صحت تولید می شود.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">با انتخاب گزینه گواهی موقت ، بخش اعلام نواقص فعال نمی شود. </t>
+  </si>
+  <si>
+    <t>در عکس نامه ارزشنامه از پرتال، عبارت بعد از "در محل"و "کمیسیون ارزشیابی" جا افتاده و دو غلط املایی "مورخه" و "مارک" داریم.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">اشکال تایپی در متن خطای اطلاعات ورود و خروج:
+"تاریخ خروج می بایست از تاریخ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>شروع</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> کوچکتر باشد."</t>
+    </r>
+  </si>
+  <si>
+    <t>در بخش اطلاعات متقاضی در سربرگ اطلاعات درخواست، خطای "کاربر گرامی تاریخ فارغ التحصیلی نمی تواند از تاریخ شروع به تحصیل بزرگتر باشد" می دهد.</t>
+  </si>
+  <si>
+    <t>درپرتال در بخش اطلاعات درخواست،در فیلد رشته به زبان فارسی. مثال:جستجو "مکانی" که مهندسی مکانیک را نمی آورد.</t>
+  </si>
+  <si>
+    <t>در بخش بررسی اولیه ارزیابی درست عمل clear فیلد انجام نمی شود. مثال: بعد از انتخاب تغییر کارشناس و انتخاب کارشناس از گروپ باکس و برگشت به گزینه قابل ارزشیابی نمی باشد، مقدار کارشناس clear نشد.</t>
+  </si>
+  <si>
+    <t>گام 2 مسیر فرعی: غیر قابل ارزشیابی</t>
+  </si>
+  <si>
+    <t>با انتخاب گزینه غیر قابل ارزیابی، فرایند خاتمه پیدا کرد و  فرایند در پورتال متقاضی نمایش داده شد ولی توضیحات وارد شده به این مرحله نرسید و فیلدها نیز قابل ویرایش بود.</t>
+  </si>
+  <si>
+    <t>در در سوابق تحصیلی، خطای بی مورد "فایل بارگذاری تصویر مدرک تحصیلی با فرمت jpg می باشد ،حداکثر حجم 300K می باشد." میدهد با این که هر دو مورد رعایت شده است.</t>
+  </si>
+  <si>
+    <t>Admin, 00113188161</t>
+  </si>
+  <si>
+    <t>در صورتی که برای یک مقطع و دانشگاه قبلا کد صحت دریافت شده بود ، پیام نمایش داده می شود اما کد صحت به ما داده نمی شود.</t>
+  </si>
+  <si>
+    <t>در اطلاعات درخواست، در نقص مدارک، فیلد "گرایش به زبان فارسی" را بدون انتخاب من در قسمت نقص مدارک، به حالت قابل ویرایش باز گذاشته.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,6 +673,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="B Nazanin"/>
+      <charset val="178"/>
     </font>
   </fonts>
   <fills count="5">
@@ -715,7 +781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,6 +846,23 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,16 +921,18 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
@@ -859,17 +944,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1475,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:C10"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1516,7 +1590,7 @@
       <c r="C2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="21" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1524,31 +1598,33 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="22">
+      <c r="A4" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="27">
         <v>680</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1557,681 +1633,681 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27" t="s">
+      <c r="A23" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
       <c r="D27" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
       <c r="D34" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
       <c r="D35" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
       <c r="D36" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
       <c r="D37" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
       <c r="D38" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
       <c r="D40" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
       <c r="D43" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
       <c r="D44" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
       <c r="D46" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="30"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
       <c r="D49" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
       <c r="D50" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="30"/>
-      <c r="C51" s="30"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
       <c r="D52" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
       <c r="D53" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
       <c r="D54" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
       <c r="D55" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="54" x14ac:dyDescent="0.45">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="30"/>
-      <c r="C57" s="30"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
       <c r="D57" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="30"/>
-      <c r="C58" s="30"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="E58" s="24"/>
     </row>
     <row r="59" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
       <c r="D59" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="30"/>
-      <c r="C60" s="30"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
       <c r="D60" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="30"/>
-      <c r="C61" s="30"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="30"/>
-      <c r="C63" s="30"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="30"/>
-      <c r="C65" s="30"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
       <c r="D65" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="28" t="s">
+      <c r="A66" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="C66" s="29"/>
+      <c r="B66" s="33"/>
+      <c r="C66" s="34"/>
       <c r="D66" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E66" s="6"/>
     </row>
@@ -2329,16 +2405,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C1CBCD-0835-45A9-961F-A8E09F5E001E}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="29.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="49.85546875" style="14" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
@@ -2383,35 +2459,35 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="27" t="str">
         <f>'چکلیست عمومی'!A4:C4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="22">
+        <v>Admin, 00113188161</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="27">
         <f>'چکلیست عمومی'!D4:E4</f>
         <v>680</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="13" t="s">
         <v>42</v>
       </c>
@@ -2419,179 +2495,181 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="16"/>
+        <v>103</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" s="18" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" s="18" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
       <c r="D11" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" s="18" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
       <c r="D14" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" s="16"/>
     </row>
     <row r="17" spans="1:5" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:5" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" s="16"/>
     </row>
     <row r="19" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="34" t="s">
+      <c r="A20" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="17"/>
     </row>
@@ -2676,18 +2754,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A69029-A46F-4F27-95F5-737DE55CE3FA}">
-  <dimension ref="A1:J100"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:C36"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="14" customWidth="1"/>
+    <col min="2" max="3" width="27.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="51" style="14" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="14"/>
   </cols>
@@ -2744,15 +2821,15 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="26"/>
       <c r="I3" s="19">
         <v>1</v>
       </c>
@@ -2761,24 +2838,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="27" t="str">
         <f>'چکلیست عمومی'!A4:C4</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="22">
+        <v>Admin, 00113188161</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="27">
         <f>'چکلیست عمومی'!D4:E4</f>
         <v>680</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="13" t="s">
         <v>95</v>
       </c>
@@ -2786,224 +2863,230 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
+    <row r="6" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
+      <c r="E6" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="40" t="s">
+      <c r="E8" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
+    </row>
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E9" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="44" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="E10" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" s="44"/>
       <c r="C11" s="44"/>
       <c r="D11" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A12" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="23" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="45" t="s">
+      <c r="D13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.45">
+      <c r="A15" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.45">
-      <c r="A16" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
+      <c r="A16" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
+      <c r="E16" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="45" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
+      <c r="E17" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A18" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E18" s="45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="40" t="s">
+      <c r="E18" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="20"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A19" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="E19" s="20" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="20" t="s">
         <v>93</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A21" s="43" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A21" s="44" t="s">
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A22" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E22" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="44" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A23" s="44" t="s">
-        <v>132</v>
       </c>
       <c r="B23" s="44"/>
       <c r="C23" s="44"/>
@@ -3011,25 +3094,25 @@
         <v>92</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A24" s="40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B25" s="44"/>
       <c r="C25" s="44"/>
@@ -3037,25 +3120,25 @@
         <v>93</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
+        <v>136</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B27" s="44"/>
       <c r="C27" s="44"/>
@@ -3063,586 +3146,579 @@
         <v>92</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="20"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="E28" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="20"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A29" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="E29" s="20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A30" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A31" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A32" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="20" t="s">
         <v>92</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="44" t="s">
         <v>146</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.45">
+      <c r="A34" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A35" s="44"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A36" s="44"/>
+    <row r="35" spans="1:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="44" t="s">
+        <v>151</v>
+      </c>
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
-      <c r="D36" s="20"/>
+      <c r="D36" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="E36" s="20"/>
     </row>
-    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A37" s="44"/>
+    <row r="37" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="44" t="s">
+        <v>160</v>
+      </c>
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A38" s="44"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A39" s="44"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-    </row>
-    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A40" s="44"/>
+      <c r="D37" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="44" t="s">
+        <v>155</v>
+      </c>
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A41" s="44"/>
+      <c r="D40" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="44" t="s">
+        <v>161</v>
+      </c>
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-    </row>
-    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A42" s="44"/>
+      <c r="D41" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="44" t="s">
+        <v>157</v>
+      </c>
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-    </row>
-    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A43" s="44"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A44" s="44"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
     </row>
     <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A45" s="44"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
     </row>
     <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
     </row>
     <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
     <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="44"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
     </row>
     <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="44"/>
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
     </row>
     <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
-      <c r="C51" s="44"/>
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
     </row>
     <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
     </row>
     <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="44"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
     </row>
     <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
     </row>
     <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="44"/>
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
     </row>
     <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
-      <c r="C56" s="44"/>
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
     </row>
     <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
-      <c r="C57" s="44"/>
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="20"/>
       <c r="E57" s="20"/>
     </row>
     <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A58" s="44"/>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="20"/>
       <c r="E58" s="20"/>
     </row>
     <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A59" s="44"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="20"/>
       <c r="E59" s="20"/>
     </row>
     <row r="60" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
-      <c r="C60" s="44"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="20"/>
       <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
-      <c r="C61" s="44"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="20"/>
       <c r="E61" s="20"/>
     </row>
     <row r="62" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="44"/>
+      <c r="A62" s="43"/>
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="20"/>
       <c r="E62" s="20"/>
     </row>
     <row r="63" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
-      <c r="C63" s="44"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="20"/>
       <c r="E63" s="20"/>
     </row>
     <row r="64" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
-      <c r="C64" s="44"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="43"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="20"/>
       <c r="E64" s="20"/>
     </row>
     <row r="65" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
-      <c r="C65" s="44"/>
+      <c r="A65" s="43"/>
+      <c r="B65" s="43"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="20"/>
       <c r="E65" s="20"/>
     </row>
     <row r="66" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
-      <c r="C66" s="44"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
     </row>
     <row r="67" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
-      <c r="C67" s="44"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="20"/>
       <c r="E67" s="20"/>
     </row>
     <row r="68" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
-      <c r="C68" s="44"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="20"/>
       <c r="E68" s="20"/>
     </row>
     <row r="69" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="20"/>
       <c r="E69" s="20"/>
     </row>
     <row r="70" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
-      <c r="C70" s="44"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="20"/>
       <c r="E70" s="20"/>
     </row>
     <row r="71" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
-      <c r="C71" s="44"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
     </row>
     <row r="72" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
-      <c r="C72" s="44"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
     </row>
     <row r="73" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A73" s="44"/>
-      <c r="B73" s="44"/>
-      <c r="C73" s="44"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="20"/>
       <c r="E73" s="20"/>
     </row>
     <row r="74" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
-      <c r="C74" s="44"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
     </row>
     <row r="75" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
+      <c r="A75" s="43"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
     </row>
     <row r="76" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="20"/>
       <c r="E76" s="20"/>
     </row>
     <row r="77" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
+      <c r="A77" s="43"/>
+      <c r="B77" s="43"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="20"/>
       <c r="E77" s="20"/>
     </row>
     <row r="78" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="44"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="43"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="20"/>
       <c r="E78" s="20"/>
     </row>
     <row r="79" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
-      <c r="C79" s="44"/>
+      <c r="A79" s="43"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="20"/>
       <c r="E79" s="20"/>
     </row>
     <row r="80" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
-      <c r="C80" s="44"/>
+      <c r="A80" s="43"/>
+      <c r="B80" s="43"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
     </row>
     <row r="81" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
-      <c r="C81" s="44"/>
+      <c r="A81" s="43"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="20"/>
       <c r="E81" s="20"/>
     </row>
     <row r="82" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
-      <c r="C82" s="44"/>
+      <c r="A82" s="43"/>
+      <c r="B82" s="43"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="20"/>
       <c r="E82" s="20"/>
     </row>
     <row r="83" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
-      <c r="C83" s="44"/>
+      <c r="A83" s="43"/>
+      <c r="B83" s="43"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="20"/>
       <c r="E83" s="20"/>
     </row>
     <row r="84" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
-      <c r="C84" s="44"/>
+      <c r="A84" s="43"/>
+      <c r="B84" s="43"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
     </row>
     <row r="85" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="44"/>
+      <c r="A85" s="43"/>
+      <c r="B85" s="43"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="20"/>
       <c r="E85" s="20"/>
     </row>
     <row r="86" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A86" s="44"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="44"/>
+      <c r="A86" s="43"/>
+      <c r="B86" s="43"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="20"/>
       <c r="E86" s="20"/>
     </row>
     <row r="87" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A87" s="44"/>
-      <c r="B87" s="44"/>
-      <c r="C87" s="44"/>
+      <c r="A87" s="43"/>
+      <c r="B87" s="43"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="20"/>
       <c r="E87" s="20"/>
     </row>
     <row r="88" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
+      <c r="A88" s="43"/>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="20"/>
       <c r="E88" s="20"/>
     </row>
     <row r="89" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="44"/>
+      <c r="A89" s="43"/>
+      <c r="B89" s="43"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="20"/>
       <c r="E89" s="20"/>
     </row>
     <row r="90" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A90" s="44"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="44"/>
+      <c r="A90" s="43"/>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="20"/>
       <c r="E90" s="20"/>
     </row>
     <row r="91" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="44"/>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
     </row>
-    <row r="92" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-    </row>
-    <row r="93" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-    </row>
-    <row r="94" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-    </row>
-    <row r="95" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="20"/>
-    </row>
-    <row r="96" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-    </row>
-    <row r="97" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-    </row>
-    <row r="98" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="20"/>
-    </row>
-    <row r="99" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-    </row>
-    <row r="100" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A100" s="44"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="20"/>
-    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="etPy5C9EkixnPzn87kUgRiYn769/rrceWM5Fem5y0HzgiiuryEezoD3sxYPlbDIz/p8uBA3iUjnNusCqAekPwQ==" saltValue="u44YVnUK+Oy/0crF1tAZWQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="100">
-    <mergeCell ref="A9:C9"/>
+  <mergeCells count="91">
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
@@ -3650,10 +3726,10 @@
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A47:C47"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A37:C37"/>
     <mergeCell ref="A38:C38"/>
@@ -3662,10 +3738,10 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A48:C48"/>
     <mergeCell ref="A49:C49"/>
     <mergeCell ref="A50:C50"/>
@@ -3674,10 +3750,10 @@
     <mergeCell ref="A53:C53"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A56:C56"/>
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A71:C71"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A62:C62"/>
@@ -3686,10 +3762,10 @@
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A68:C68"/>
     <mergeCell ref="A69:C69"/>
     <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A83:C83"/>
     <mergeCell ref="A72:C72"/>
     <mergeCell ref="A73:C73"/>
     <mergeCell ref="A74:C74"/>
@@ -3698,26 +3774,17 @@
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A80:C80"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
     <mergeCell ref="A84:C84"/>
     <mergeCell ref="A85:C85"/>
     <mergeCell ref="A86:C86"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A88:C88"/>
     <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
@@ -3730,7 +3797,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D100" xr:uid="{B1661E6D-2272-42FE-800C-A6430388B7D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D91" xr:uid="{B1661E6D-2272-42FE-800C-A6430388B7D7}">
       <formula1>$J$1:$J$3</formula1>
     </dataValidation>
   </dataValidations>
@@ -3746,7 +3813,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,17 +3850,17 @@
       <c r="B2" s="11">
         <f>COUNTIF('چکلیست زیرساخت'!D6:D21,"Y")/
    COUNTA('چکلیست زیرساخت'!D6:D21)</f>
-        <v>1</v>
+        <v>0.9375</v>
       </c>
       <c r="C2" s="10">
-        <f>COUNTA('چکلیست کسب و کار'!D6:D100)</f>
-        <v>25</v>
+        <f>COUNTA('چکلیست کسب و کار'!D6:D91)</f>
+        <v>38</v>
       </c>
       <c r="D2" s="12">
-        <f>(COUNTIF('چکلیست کسب و کار'!D6:D100,"M")*0.5
-+COUNTIF('چکلیست کسب و کار'!D6:D100,"S")*0.1
-+COUNTIF('چکلیست کسب و کار'!D6:D100,"C"))/'چکلیست عمومی'!D4:E4</f>
-        <v>1.0294117647058823E-2</v>
+        <f>(COUNTIF('چکلیست کسب و کار'!D6:D91,"M")*0.5
++COUNTIF('چکلیست کسب و کار'!D6:D91,"S")*0.1
++COUNTIF('چکلیست کسب و کار'!D6:D91,"C"))/'چکلیست عمومی'!D4:E4</f>
+        <v>1.5588235294117646E-2</v>
       </c>
       <c r="E2" s="11">
         <f>(COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
@@ -3803,7 +3870,7 @@
 IF(AND(D2&lt;=0.03,D2&gt;0.02),D2*3,
 IF(AND(D2&lt;=0.02,D2&gt;=0.01),D2*2,
 IF(D2&lt;0.01,D2))))</f>
-        <v>0.69509803921568625</v>
+        <v>0.59491048593350393</v>
       </c>
     </row>
   </sheetData>
